--- a/RawData/ModelingXylanSolubilizationDuringAutohydrolysisOfSugarMaple.xlsx
+++ b/RawData/ModelingXylanSolubilizationDuringAutohydrolysisOfSugarMaple.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A681C-E229-48A6-AB5B-18FB3415869C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956DB429-C2B1-4BDF-A519-010D04CBBBCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>Reactor Conditions</t>
   </si>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>mono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4066,32 +4074,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E424CE75-517A-4BE5-839E-10CE99A25717}">
-  <dimension ref="A1:Y49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="78" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" customWidth="1"/>
-    <col min="20" max="20" width="11.5546875" customWidth="1"/>
-    <col min="24" max="24" width="21.109375" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" customWidth="1"/>
+    <col min="21" max="21" width="11.5546875" customWidth="1"/>
+    <col min="25" max="25" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4102,73 +4110,76 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>19</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>20</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4178,35 +4189,38 @@
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>15.1</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>15.1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>24.149253731343279</v>
       </c>
@@ -4216,35 +4230,38 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>0</v>
+      <c r="D4" t="s">
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>10.5</v>
+      </c>
+      <c r="I4">
         <v>20.149253731343279</v>
       </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>15.1</v>
-      </c>
-      <c r="T4">
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>15.1</v>
+      </c>
+      <c r="U4">
         <v>0.5344016597213368</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>6.8201193520872838E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>44.298507462686558</v>
       </c>
@@ -4254,35 +4271,38 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>10.5</v>
+      </c>
+      <c r="I5">
         <v>40.298507462686558</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>15.1</v>
-      </c>
-      <c r="T5">
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>15.1</v>
+      </c>
+      <c r="U5">
         <v>1.1560022813219681</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>6.8201193520884829E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>63.776119402985074</v>
       </c>
@@ -4292,35 +4312,38 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>10.5</v>
+      </c>
+      <c r="I6">
         <v>59.776119402985074</v>
       </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>15.1</v>
-      </c>
-      <c r="T6">
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>15.1</v>
+      </c>
+      <c r="U6">
         <v>3.7011070770661383</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>0.20460358056265332</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>94</v>
       </c>
@@ -4330,35 +4353,38 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>10.5</v>
+      </c>
+      <c r="I7">
         <v>90</v>
       </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>15.1</v>
-      </c>
-      <c r="T7">
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>15.1</v>
+      </c>
+      <c r="U7">
         <v>4.8476104742089117</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>0.34100596760442337</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>124.2238805970148</v>
       </c>
@@ -4368,35 +4394,38 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>0</v>
+      <c r="D8" t="s">
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>10.5</v>
+      </c>
+      <c r="I8">
         <v>120.2238805970148</v>
       </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>15.1</v>
-      </c>
-      <c r="T8">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>15.1</v>
+      </c>
+      <c r="U8">
         <v>11.192229197344263</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1.0912190963341684</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>184</v>
       </c>
@@ -4406,35 +4435,38 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>10.5</v>
+      </c>
+      <c r="I9">
         <v>180</v>
       </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>15.1</v>
-      </c>
-      <c r="T9">
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>15.1</v>
+      </c>
+      <c r="U9">
         <v>13.20197847052064</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>3.9556692242114169</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>274.67164179104441</v>
       </c>
@@ -4444,35 +4476,38 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>55</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>10.5</v>
+      </c>
+      <c r="I10">
         <v>270.67164179104441</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>15.1</v>
-      </c>
-      <c r="T10">
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>15.1</v>
+      </c>
+      <c r="U10">
         <v>13.624102524358237</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>5.3878942881500169</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>364</v>
       </c>
@@ -4482,35 +4517,38 @@
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>55</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>10.5</v>
+      </c>
+      <c r="I11">
         <v>360</v>
       </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>15.1</v>
-      </c>
-      <c r="T11">
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <v>15.1</v>
+      </c>
+      <c r="U11">
         <v>13.551529459457816</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>7.0247229326513008</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4520,35 +4558,38 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>15.1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>15.1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>19.053763440860202</v>
       </c>
@@ -4558,35 +4599,38 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H13">
+        <v>10.5</v>
+      </c>
+      <c r="I13">
         <v>15.0537634408602</v>
       </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>15.1</v>
-      </c>
-      <c r="T13">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>15.1</v>
+      </c>
+      <c r="U13">
         <v>0.6079877907834913</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>6.4087246882949672E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>34.10752688172046</v>
       </c>
@@ -4596,35 +4640,38 @@
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14">
-        <v>0</v>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H14">
+        <v>10.5</v>
+      </c>
+      <c r="I14">
         <v>30.10752688172046</v>
       </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>15.1</v>
-      </c>
-      <c r="T14">
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>15.1</v>
+      </c>
+      <c r="U14">
         <v>2.6052529708443601</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>0.19655056214195502</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>48.731182795698942</v>
       </c>
@@ -4634,35 +4681,38 @@
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>0</v>
+      <c r="D15" t="s">
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H15">
+        <v>10.5</v>
+      </c>
+      <c r="I15">
         <v>44.731182795698942</v>
       </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>15.1</v>
-      </c>
-      <c r="T15">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>15.1</v>
+      </c>
+      <c r="U15">
         <v>5.991918077939582</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>0.39751248353399499</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>63.784946236559136</v>
       </c>
@@ -4672,35 +4722,38 @@
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D16" t="s">
+        <v>55</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H16">
+        <v>10.5</v>
+      </c>
+      <c r="I16">
         <v>59.784946236559136</v>
       </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>15.1</v>
-      </c>
-      <c r="T16">
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>15.1</v>
+      </c>
+      <c r="U16">
         <v>7.8462151150323036</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.0086082774254852</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:26">
       <c r="A17">
         <v>93.892473118279</v>
       </c>
@@ -4710,35 +4763,38 @@
       <c r="C17">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>0</v>
+      <c r="D17" t="s">
+        <v>55</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H17">
+        <v>10.5</v>
+      </c>
+      <c r="I17">
         <v>89.892473118279</v>
       </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>15.1</v>
-      </c>
-      <c r="T17">
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>15.1</v>
+      </c>
+      <c r="U17">
         <v>12.282081916490498</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2.02567166008025</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:26">
       <c r="A18">
         <v>124.4301075268816</v>
       </c>
@@ -4748,35 +4804,38 @@
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18">
-        <v>0</v>
+      <c r="D18" t="s">
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H18">
+        <v>10.5</v>
+      </c>
+      <c r="I18">
         <v>120.4301075268816</v>
       </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>15.1</v>
-      </c>
-      <c r="T18">
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>15.1</v>
+      </c>
+      <c r="U18">
         <v>15.894205356570934</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3.3844928468584334</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:26">
       <c r="A19">
         <v>153.67741935483821</v>
       </c>
@@ -4786,35 +4845,38 @@
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H19">
+        <v>10.5</v>
+      </c>
+      <c r="I19">
         <v>149.67741935483821</v>
       </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="N19">
-        <v>15.1</v>
-      </c>
-      <c r="T19">
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>15.1</v>
+      </c>
+      <c r="U19">
         <v>17.958910862136658</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4.1282970315228331</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20">
         <v>184.21505376344078</v>
       </c>
@@ -4824,35 +4886,38 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H20">
+        <v>10.5</v>
+      </c>
+      <c r="I20">
         <v>180.21505376344078</v>
       </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="N20">
-        <v>15.1</v>
-      </c>
-      <c r="T20">
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>15.1</v>
+      </c>
+      <c r="U20">
         <v>19.563264294447062</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>5.9657506969334841</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21">
         <v>244</v>
       </c>
@@ -4862,35 +4927,38 @@
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H21">
+        <v>10.5</v>
+      </c>
+      <c r="I21">
         <v>240</v>
       </c>
-      <c r="I21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>15.1</v>
-      </c>
-      <c r="T21">
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>15.1</v>
+      </c>
+      <c r="U21">
         <v>16.177156177156157</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>4.4444444444444331</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22">
         <v>4</v>
       </c>
@@ -4900,35 +4968,38 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>55</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>15.1</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>15.1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23">
         <v>12.90109890109888</v>
       </c>
@@ -4938,35 +5009,38 @@
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>0</v>
+      <c r="D23" t="s">
+        <v>55</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H23">
+        <v>10.5</v>
+      </c>
+      <c r="I23">
         <v>8.9010989010988801</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>15.1</v>
-      </c>
-      <c r="T23">
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>15.1</v>
+      </c>
+      <c r="U23">
         <v>0.58526440879380526</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>6.5359477124170826E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24">
         <v>22.461538461538421</v>
       </c>
@@ -4976,35 +5050,38 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>0</v>
+      <c r="D24" t="s">
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H24">
+        <v>10.5</v>
+      </c>
+      <c r="I24">
         <v>18.461538461538421</v>
       </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="N24">
-        <v>15.1</v>
-      </c>
-      <c r="T24">
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>15.1</v>
+      </c>
+      <c r="U24">
         <v>2.4242424242424021</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.196078431372535</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:26">
       <c r="A25">
         <v>34</v>
       </c>
@@ -5014,35 +5091,38 @@
       <c r="C25">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>0</v>
+      <c r="D25" t="s">
+        <v>55</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H25">
+        <v>10.5</v>
+      </c>
+      <c r="I25">
         <v>30</v>
       </c>
-      <c r="I25">
-        <v>4</v>
-      </c>
-      <c r="N25">
-        <v>15.1</v>
-      </c>
-      <c r="T25">
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>15.1</v>
+      </c>
+      <c r="U25">
         <v>6.0843731431966468</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.58823529411763165</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26">
         <v>49.494505494505482</v>
       </c>
@@ -5052,35 +5132,38 @@
       <c r="C26">
         <v>6</v>
       </c>
-      <c r="D26">
-        <v>0</v>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H26">
+        <v>10.5</v>
+      </c>
+      <c r="I26">
         <v>45.494505494505482</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>15.1</v>
-      </c>
-      <c r="T26">
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>15.1</v>
+      </c>
+      <c r="U26">
         <v>9.7177658942364502</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>1.1764705882352766</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27">
         <v>64.329670329669995</v>
       </c>
@@ -5090,35 +5173,38 @@
       <c r="C27">
         <v>6</v>
       </c>
-      <c r="D27">
-        <v>0</v>
+      <c r="D27" t="s">
+        <v>55</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H27">
+        <v>10.5</v>
+      </c>
+      <c r="I27">
         <v>60.329670329669995</v>
       </c>
-      <c r="I27">
-        <v>4</v>
-      </c>
-      <c r="N27">
-        <v>15.1</v>
-      </c>
-      <c r="T27">
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>15.1</v>
+      </c>
+      <c r="U27">
         <v>12.911467617349945</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>2.81045751633985</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28">
         <v>94</v>
       </c>
@@ -5128,35 +5214,38 @@
       <c r="C28">
         <v>6</v>
       </c>
-      <c r="D28">
-        <v>0</v>
+      <c r="D28" t="s">
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H28">
+        <v>10.5</v>
+      </c>
+      <c r="I28">
         <v>90</v>
       </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>15.1</v>
-      </c>
-      <c r="T28">
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>15.1</v>
+      </c>
+      <c r="U28">
         <v>14.441473559120565</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>4.1176470588235006</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:26">
       <c r="A29">
         <v>124</v>
       </c>
@@ -5166,35 +5255,38 @@
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29">
-        <v>0</v>
+      <c r="D29" t="s">
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H29">
+        <v>10.5</v>
+      </c>
+      <c r="I29">
         <v>120</v>
       </c>
-      <c r="I29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>15.1</v>
-      </c>
-      <c r="T29">
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>15.1</v>
+      </c>
+      <c r="U29">
         <v>15.496137849078977</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>5.0980392156862493</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:26">
       <c r="A30">
         <v>154.32967032967002</v>
       </c>
@@ -5204,35 +5296,38 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30">
-        <v>0</v>
+      <c r="D30" t="s">
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H30">
+        <v>10.5</v>
+      </c>
+      <c r="I30">
         <v>150.32967032967002</v>
       </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>15.1</v>
-      </c>
-      <c r="T30">
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>15.1</v>
+      </c>
+      <c r="U30">
         <v>13.612596553772985</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>6.928104575163383</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:26">
       <c r="A31">
         <v>184</v>
       </c>
@@ -5242,35 +5337,38 @@
       <c r="C31">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>0</v>
+      <c r="D31" t="s">
+        <v>55</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H31">
+        <v>10.5</v>
+      </c>
+      <c r="I31">
         <v>180</v>
       </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="N31">
-        <v>15.1</v>
-      </c>
-      <c r="T31">
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>15.1</v>
+      </c>
+      <c r="U31">
         <v>13.579916815210915</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>7.7124183006535842</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:26">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5280,35 +5378,38 @@
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>0</v>
+      <c r="D32" t="s">
+        <v>55</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="N32">
-        <v>15.1</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>15.1</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33">
         <v>7.5978835978835857</v>
       </c>
@@ -5318,35 +5419,38 @@
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H33">
+        <v>10.5</v>
+      </c>
+      <c r="I33">
         <v>3.5978835978835861</v>
       </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="N33">
-        <v>15.1</v>
-      </c>
-      <c r="T33">
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>15.1</v>
+      </c>
+      <c r="U33">
         <v>1.8786522070561633</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>6.4102564102566845E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:26">
       <c r="A34">
         <v>11.195767195767161</v>
       </c>
@@ -5356,35 +5460,38 @@
       <c r="C34">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>0</v>
+      <c r="D34" t="s">
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H34">
+        <v>10.5</v>
+      </c>
+      <c r="I34">
         <v>7.1957671957671607</v>
       </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="N34">
-        <v>15.1</v>
-      </c>
-      <c r="T34">
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>15.1</v>
+      </c>
+      <c r="U34">
         <v>2.4408215315489388</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.19230769230768835</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:26">
       <c r="A35">
         <v>19.026455026455039</v>
       </c>
@@ -5394,35 +5501,38 @@
       <c r="C35">
         <v>6</v>
       </c>
-      <c r="D35">
-        <v>0</v>
+      <c r="D35" t="s">
+        <v>55</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H35">
+        <v>10.5</v>
+      </c>
+      <c r="I35">
         <v>15.026455026455039</v>
       </c>
-      <c r="I35">
-        <v>4</v>
-      </c>
-      <c r="N35">
-        <v>15.1</v>
-      </c>
-      <c r="T35">
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>15.1</v>
+      </c>
+      <c r="U35">
         <v>6.5996181483791485</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.57692307692308831</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:26">
       <c r="A36">
         <v>28.338624338624321</v>
       </c>
@@ -5432,35 +5542,38 @@
       <c r="C36">
         <v>6</v>
       </c>
-      <c r="D36">
-        <v>0</v>
+      <c r="D36" t="s">
+        <v>55</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H36">
+        <v>10.5</v>
+      </c>
+      <c r="I36">
         <v>24.338624338624321</v>
       </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="N36">
-        <v>15.1</v>
-      </c>
-      <c r="T36">
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>15.1</v>
+      </c>
+      <c r="U36">
         <v>10.389613741598817</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>1.5384615384615434</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:26">
       <c r="A37">
         <v>46.116402116402078</v>
       </c>
@@ -5470,35 +5583,38 @@
       <c r="C37">
         <v>6</v>
       </c>
-      <c r="D37">
-        <v>0</v>
+      <c r="D37" t="s">
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H37">
+        <v>10.5</v>
+      </c>
+      <c r="I37">
         <v>42.116402116402078</v>
       </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="N37">
-        <v>15.1</v>
-      </c>
-      <c r="T37">
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>15.1</v>
+      </c>
+      <c r="U37">
         <v>13.627102486681478</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:26">
       <c r="A38">
         <v>64.105820105819788</v>
       </c>
@@ -5508,35 +5624,38 @@
       <c r="C38">
         <v>6</v>
       </c>
-      <c r="D38">
-        <v>0</v>
+      <c r="D38" t="s">
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H38">
+        <v>10.5</v>
+      </c>
+      <c r="I38">
         <v>60.105820105819795</v>
       </c>
-      <c r="I38">
-        <v>4</v>
-      </c>
-      <c r="N38">
-        <v>15.1</v>
-      </c>
-      <c r="T38">
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <v>15.1</v>
+      </c>
+      <c r="U38">
         <v>14.3383417117763</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>3.9102564102564163</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:26">
       <c r="A39">
         <v>94.158730158729995</v>
       </c>
@@ -5546,35 +5665,38 @@
       <c r="C39">
         <v>6</v>
       </c>
-      <c r="D39">
-        <v>0</v>
+      <c r="D39" t="s">
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H39">
+        <v>10.5</v>
+      </c>
+      <c r="I39">
         <v>90.158730158729995</v>
       </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="N39">
-        <v>15.1</v>
-      </c>
-      <c r="T39">
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>15.1</v>
+      </c>
+      <c r="U39">
         <v>14.169787146072785</v>
       </c>
-      <c r="Y39">
+      <c r="Z39">
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:26">
       <c r="A40">
         <v>123.9999999999994</v>
       </c>
@@ -5584,35 +5706,38 @@
       <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40">
-        <v>0</v>
+      <c r="D40" t="s">
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H40">
+        <v>10.5</v>
+      </c>
+      <c r="I40">
         <v>119.9999999999994</v>
       </c>
-      <c r="I40">
-        <v>4</v>
-      </c>
-      <c r="N40">
-        <v>15.1</v>
-      </c>
-      <c r="T40">
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <v>15.1</v>
+      </c>
+      <c r="U40">
         <v>9.0564750996405383</v>
       </c>
-      <c r="Y40">
+      <c r="Z40">
         <v>5.6410256410256334</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:26">
       <c r="A41">
         <v>4</v>
       </c>
@@ -5622,35 +5747,38 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41">
-        <v>0</v>
+      <c r="D41" t="s">
+        <v>55</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="O41">
         <v>14.7</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42">
         <v>19.137385512073237</v>
       </c>
@@ -5660,35 +5788,38 @@
       <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42">
-        <v>0</v>
+      <c r="D42" t="s">
+        <v>55</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H42">
+        <v>10.5</v>
+      </c>
+      <c r="I42">
         <v>15.137385512073239</v>
       </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="N42">
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="O42">
         <v>14.7</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>0.82427986936458308</v>
       </c>
-      <c r="Y42">
+      <c r="Z42">
         <v>2.539723251887917E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:26">
       <c r="A43">
         <v>33.825145711906721</v>
       </c>
@@ -5698,35 +5829,38 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>0</v>
+      <c r="D43" t="s">
+        <v>55</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H43">
+        <v>10.5</v>
+      </c>
+      <c r="I43">
         <v>29.825145711906721</v>
       </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="N43">
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="O43">
         <v>14.7</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>5.2279885604107994</v>
       </c>
-      <c r="Y43">
+      <c r="Z43">
         <v>0.458005141682295</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:26">
       <c r="A44">
         <v>48.962531223980022</v>
       </c>
@@ -5736,35 +5870,38 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="D44">
-        <v>0</v>
+      <c r="D44" t="s">
+        <v>55</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H44">
+        <v>10.5</v>
+      </c>
+      <c r="I44">
         <v>44.962531223980022</v>
       </c>
-      <c r="I44">
-        <v>4</v>
-      </c>
-      <c r="N44">
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="O44">
         <v>14.7</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>7.614056585782544</v>
       </c>
-      <c r="Y44">
+      <c r="Z44">
         <v>1.0947464504381501</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:26">
       <c r="A45">
         <v>63.800166527893417</v>
       </c>
@@ -5774,35 +5911,38 @@
       <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45">
-        <v>0</v>
+      <c r="D45" t="s">
+        <v>55</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H45">
+        <v>10.5</v>
+      </c>
+      <c r="I45">
         <v>59.800166527893417</v>
       </c>
-      <c r="I45">
-        <v>4</v>
-      </c>
-      <c r="N45">
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="O45">
         <v>14.7</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>7.6638720904561355</v>
       </c>
-      <c r="Y45">
+      <c r="Z45">
         <v>1.7314374676444499</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:26">
       <c r="A46">
         <v>94.224812656119397</v>
       </c>
@@ -5812,35 +5952,38 @@
       <c r="C46">
         <v>6</v>
       </c>
-      <c r="D46">
-        <v>0</v>
+      <c r="D46" t="s">
+        <v>55</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H46">
+        <v>10.5</v>
+      </c>
+      <c r="I46">
         <v>90.224812656119397</v>
       </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="N46">
+      <c r="J46">
+        <v>4</v>
+      </c>
+      <c r="O46">
         <v>14.7</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>10.263188311902208</v>
       </c>
-      <c r="Y46">
+      <c r="Z46">
         <v>3.0653453819313001</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:26">
       <c r="A47">
         <v>124.04995836802659</v>
       </c>
@@ -5850,35 +5993,38 @@
       <c r="C47">
         <v>6</v>
       </c>
-      <c r="D47">
-        <v>0</v>
+      <c r="D47" t="s">
+        <v>55</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H47">
+        <v>10.5</v>
+      </c>
+      <c r="I47">
         <v>120.04995836802659</v>
       </c>
-      <c r="I47">
-        <v>4</v>
-      </c>
-      <c r="N47">
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="O47">
         <v>14.7</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>12.589588728671435</v>
       </c>
-      <c r="Y47">
+      <c r="Z47">
         <v>3.8857514296158668</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:26">
       <c r="A48">
         <v>154.1748542880928</v>
       </c>
@@ -5888,35 +6034,38 @@
       <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48">
-        <v>0</v>
+      <c r="D48" t="s">
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H48">
+        <v>10.5</v>
+      </c>
+      <c r="I48">
         <v>150.1748542880928</v>
       </c>
-      <c r="I48">
-        <v>4</v>
-      </c>
-      <c r="N48">
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="O48">
         <v>14.7</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>12.8837085161299</v>
       </c>
-      <c r="Y48">
+      <c r="Z48">
         <v>4.4948072403486501</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:26">
       <c r="A49">
         <v>184</v>
       </c>
@@ -5926,31 +6075,34 @@
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49">
-        <v>0</v>
+      <c r="D49" t="s">
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>10.5</v>
+        <v>500</v>
       </c>
       <c r="H49">
+        <v>10.5</v>
+      </c>
+      <c r="I49">
         <v>180</v>
       </c>
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="N49">
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="O49">
         <v>14.7</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>10.701521826118551</v>
       </c>
-      <c r="Y49">
+      <c r="Z49">
         <v>7.3688184220460506</v>
       </c>
     </row>
